--- a/期权做市每月盈亏统计.xlsx
+++ b/期权做市每月盈亏统计.xlsx
@@ -845,11 +845,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="394533504"/>
-        <c:axId val="394584448"/>
+        <c:axId val="405659008"/>
+        <c:axId val="403829888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="394533504"/>
+        <c:axId val="405659008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,7 +859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="394584448"/>
+        <c:crossAx val="403829888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -867,7 +867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394584448"/>
+        <c:axId val="403829888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +878,194 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="394533504"/>
+        <c:crossAx val="405659008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>每月盈亏</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>期权做市每月盈亏统计!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>201604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>201605</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>201606</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>201607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>201608</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201610</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201611</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>201701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201702</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>期权做市每月盈亏统计!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52585.149999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>445177.29999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68880.310000000056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>440875.34999999986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>602859.42000000016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1067399.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>926616.87999999989</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018835.33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>244051.33000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>928513.51999999955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="401749888"/>
+        <c:axId val="401751424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="401749888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="401751424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401751424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0_ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="401749888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -927,6 +1114,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1225,7 +1442,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
